--- a/测试/01DPC_3C集成测试报告.xlsx
+++ b/测试/01DPC_3C集成测试报告.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,19 +70,7 @@
     <t>调试</t>
   </si>
   <si>
-    <t>徐勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件收集服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于json格式的数据库存储</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 放入log文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.写入alarm_fileinfo
 2.json消息写入kafka对应的topic
 3.上传fastdfs</t>
@@ -128,28 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动车对内数据终端网站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰盒测试</t>
-  </si>
-  <si>
-    <t>1. 详情页上下一条数据的性能优化：通过缓存列表数据实现，具体实现可能有变更（王政远）</t>
-  </si>
-  <si>
-    <t>2. 性能监控页面优化（田喜霞）：耗时分析图修改成一周解析概况图表；优化kafka饼图无数据时为空的显示效果；</t>
-  </si>
-  <si>
-    <t>3. 动车3C手机APP接口：修复APP 手机验证码登录时的BUG，手机登录参数解密；修复报警详情raisetime重复；报警列表APP提供hw缺陷帧图片；APP支持图片代理需config配置；APP详情页增加转发状态；增加批量保存导高拉出值接口；</t>
-  </si>
-  <si>
-    <t>4. 解决分布式部署部分功能不可用（比如先由服务器生成地址给前端，再由前端下载）（王政远）</t>
-  </si>
-  <si>
-    <t>5. 容器注入由hbase模板修改成oracle db模板:涉及所有原始文件和fastdfs图片功能。</t>
-  </si>
-  <si>
     <t>1. 报警列表点击一条进入详情页，上一条下一条翻页
 2. 报警列表点击一条进入详情页，在他人锁定某一条记录时， 上一条下一条翻页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +145,146 @@
   </si>
   <si>
     <t>按预期返回结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于胥义网络问题，这个模块发布后测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动车对内数据终端网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰盒测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 详情页上下一条数据的性能优化：通过缓存列表数据实现，具体实现可能有变更（王政远）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 性能监控页面优化（田喜霞）：耗时分析图修改成一周解析概况图表；优化kafka饼图无数据时为空的显示效果；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 动车3C手机APP接口：修复APP 手机验证码登录时的BUG，手机登录参数解密；修复报警详情raisetime重复；报警列表APP提供hw缺陷帧图片；APP支持图片代理需config配置；APP详情页增加转发状态；增加批量保存导高拉出值接口；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 解决分布式部署部分功能不可用（比如先由服务器生成地址给前端，再由前端下载）（王政远）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动车对内数据终端网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 容器注入由hbase模板修改成oracle db模板:涉及所有原始文件和fastdfs图片功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.写入alarm_fileinfo成功
+2.图片上传fastdfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. mv2后来后将原始文件append至json数组中
+2.mv3同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已单独测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3C缺陷报告生成服务</t>
+  </si>
+  <si>
+    <t>SYN转发服务</t>
+  </si>
+  <si>
+    <t> 转发服务</t>
+  </si>
+  <si>
+    <t>3C数据解析WebAPI接口</t>
+  </si>
+  <si>
+    <t>mv4图像提图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. swagger接口测试：传入新解析的scs文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常报警ID重新生成报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王政远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王政远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王政远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastdfs存储访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新生成新解析的报警文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调用oracle dataaccess获取数据
+2.图片显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调用oracle dataaccess获取数据
+2.缺陷图片显示正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -260,22 +362,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -300,15 +391,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -589,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -644,182 +727,375 @@
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="9"/>
       <c r="H2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I2" s="6"/>
       <c r="J2" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="9"/>
       <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="I8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H6"/>

--- a/测试/01DPC_3C集成测试报告.xlsx
+++ b/测试/01DPC_3C集成测试报告.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
   </bookViews>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">V5.14!$A$1:$H$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. 解决分布式部署部分功能不可用（比如先由服务器生成地址给前端，再由前端下载）（王政远）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动车对内数据终端网站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,9 +212,6 @@
     <t>SYN转发服务</t>
   </si>
   <si>
-    <t> 转发服务</t>
-  </si>
-  <si>
     <t>3C数据解析WebAPI接口</t>
   </si>
   <si>
@@ -285,13 +278,38 @@
   <si>
     <t>1.调用oracle dataaccess获取数据
 2.缺陷图片显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新基本组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、启动流程测试，2、数据查询流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 解决分布式部署部分功能不可用（比如先由服务器生成地址给前端，再由前端下载）（王政远）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 转发服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、启动正确从数据库获取基础数据
+2、SYN数据生成返回正常结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、启动正确从数据库获取基础数据，并初始化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -791,17 +809,17 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -819,17 +837,17 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -854,10 +872,10 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -882,10 +900,10 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -911,11 +929,11 @@
         <v>26</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -923,7 +941,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>26</v>
@@ -934,22 +952,22 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>27</v>
@@ -962,138 +980,150 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="J15" s="10"/>
     </row>
